--- a/data/PF008.xlsx
+++ b/data/PF008.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="233" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,67 +13,72 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
-    <t>emailid</t>
-  </si>
-  <si>
-    <t>PassWord</t>
-  </si>
-  <si>
-    <t>MainQty</t>
-  </si>
-  <si>
-    <t>extra1</t>
-  </si>
-  <si>
-    <t>extra3</t>
-  </si>
-  <si>
-    <t>extra6</t>
-  </si>
-  <si>
-    <t>LunchQty</t>
-  </si>
-  <si>
-    <t>platqty</t>
-  </si>
-  <si>
-    <t>glutenfree</t>
-  </si>
-  <si>
-    <t>orddate</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>muthuraman.sundharam@saggezza.com</t>
-  </si>
-  <si>
-    <t>mutc1234</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>01/27/2017</t>
-  </si>
-  <si>
-    <t>3:00 PM</t>
+    <t xml:space="preserve">emailid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PassWord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainQty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LunchQty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platqty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glutenfree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orddate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muthuraman.sundharam@saggezza.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mutc1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:00 PM</t>
   </si>
 </sst>
 </file>
@@ -81,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YYYY"/>
     <numFmt numFmtId="166" formatCode="HH:MM"/>
     <numFmt numFmtId="167" formatCode="MM/DD/YY"/>
@@ -234,22 +239,22 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.05102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="7.07142857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.75510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.78571428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8622448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -328,7 +333,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -343,18 +348,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -369,18 +374,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
